--- a/MS Excel Namrata (1) (2) (3) (2) (2) (2) (1).xlsx
+++ b/MS Excel Namrata (1) (2) (3) (2) (2) (2) (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" firstSheet="17" activeTab="23"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" firstSheet="18" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,13 +31,14 @@
     <sheet name="Sheet22" sheetId="24" r:id="rId22"/>
     <sheet name="Sheet23" sheetId="25" r:id="rId23"/>
     <sheet name="Sheet24" sheetId="26" r:id="rId24"/>
+    <sheet name="Sheet25" sheetId="27" r:id="rId25"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="392">
   <si>
     <t xml:space="preserve">A spreadsheet is a software program you use to easily perform mathematical calculations on statistical data and totaling long columns of numbers or determining percentage and averages
 </t>
@@ -1241,6 +1242,66 @@
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>Batch</t>
+  </si>
+  <si>
+    <t>Admission Date</t>
+  </si>
+  <si>
+    <t>Timing</t>
+  </si>
+  <si>
+    <t>DCA</t>
+  </si>
+  <si>
+    <t>7:30am</t>
+  </si>
+  <si>
+    <t>dca</t>
+  </si>
+  <si>
+    <t>6:30pm</t>
+  </si>
+  <si>
+    <t>pgdca</t>
+  </si>
+  <si>
+    <t>4:30pm</t>
+  </si>
+  <si>
+    <t>priya sharma</t>
+  </si>
+  <si>
+    <t>tally</t>
+  </si>
+  <si>
+    <t>3:00pm</t>
+  </si>
+  <si>
+    <t>john gurung</t>
+  </si>
+  <si>
+    <t>2:00pm</t>
+  </si>
+  <si>
+    <t>5:30pm</t>
+  </si>
+  <si>
+    <t>1:00pm</t>
+  </si>
+  <si>
+    <t>noyal gurung</t>
+  </si>
+  <si>
+    <t>5:00pm</t>
+  </si>
+  <si>
+    <t>7:30pm</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1363,9 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="IDAUTOMATION"/>
+      <name val="IDAHC39M Code 39 Barcode"/>
+      <family val="1"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="30">
@@ -1579,251 +1642,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
@@ -1832,6 +1651,250 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1940,24 +2003,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="60576896"/>
-        <c:axId val="60578432"/>
+        <c:axId val="93255936"/>
+        <c:axId val="93597696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60576896"/>
+        <c:axId val="93255936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60578432"/>
+        <c:crossAx val="93597696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60578432"/>
+        <c:axId val="93597696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1965,7 +2028,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60576896"/>
+        <c:crossAx val="93255936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1977,7 +2040,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3344,299 +3407,299 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="H8" s="45" t="s">
+      <c r="D8" s="52"/>
+      <c r="H8" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="43" t="s">
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
     </row>
     <row r="17" spans="4:13">
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
     </row>
     <row r="18" spans="4:13">
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
     </row>
     <row r="20" spans="4:13">
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41" t="s">
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
     </row>
     <row r="21" spans="4:13">
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
     </row>
     <row r="22" spans="4:13">
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
     </row>
     <row r="23" spans="4:13">
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
     </row>
     <row r="24" spans="4:13">
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
     </row>
     <row r="25" spans="4:13">
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
     </row>
     <row r="26" spans="4:13">
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
     </row>
     <row r="28" spans="4:13">
-      <c r="D28" s="40" t="s">
+      <c r="D28" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="43" t="s">
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
     </row>
     <row r="29" spans="4:13">
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
     </row>
     <row r="30" spans="4:13">
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
     </row>
     <row r="31" spans="4:13">
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
     </row>
     <row r="32" spans="4:13">
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
     </row>
     <row r="33" spans="8:13">
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
     </row>
     <row r="34" spans="8:13">
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3665,39 +3728,39 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="4" spans="1:13">
       <c r="B4" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="82">
+      <c r="G4" s="89">
         <f>COUNTIF(B5:B14,"apples")</f>
         <v>2</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:13">
       <c r="B5" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="82"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" t="s">
@@ -3718,65 +3781,65 @@
       <c r="B9" t="s">
         <v>124</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
     </row>
     <row r="10" spans="1:13">
       <c r="B10" t="s">
         <v>125</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="G10" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
     </row>
     <row r="11" spans="1:13">
       <c r="B11" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
     </row>
     <row r="12" spans="1:13">
       <c r="B12" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
     </row>
     <row r="13" spans="1:13">
       <c r="B13" t="s">
         <v>128</v>
       </c>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
     </row>
     <row r="14" spans="1:13">
       <c r="B14" t="s">
@@ -3806,30 +3869,30 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="K4" s="63" t="s">
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="K4" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
     </row>
     <row r="5" spans="1:18">
       <c r="E5" t="s">
@@ -3841,16 +3904,16 @@
       <c r="G5" t="s">
         <v>139</v>
       </c>
-      <c r="K5" s="83" t="s">
+      <c r="K5" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
     </row>
     <row r="6" spans="1:18">
       <c r="E6" t="s">
@@ -3862,14 +3925,14 @@
       <c r="G6" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="91"/>
     </row>
     <row r="7" spans="1:18">
       <c r="E7" t="s">
@@ -3881,14 +3944,14 @@
       <c r="G7" t="s">
         <v>141</v>
       </c>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="91"/>
     </row>
     <row r="8" spans="1:18">
       <c r="E8" t="s">
@@ -3900,14 +3963,14 @@
       <c r="G8" t="s">
         <v>139</v>
       </c>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="84"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="91"/>
     </row>
     <row r="9" spans="1:18">
       <c r="E9" t="s">
@@ -3919,73 +3982,73 @@
       <c r="G9" t="s">
         <v>141</v>
       </c>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
-      <c r="R9" s="84"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="91"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="50"/>
+      <c r="D11" s="57"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="46" t="s">
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
       <c r="I12" s="33">
         <f>SUMIF(F5:F9,"&lt;100")</f>
         <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="E13" s="85" t="s">
+      <c r="E13" s="92" t="s">
         <v>144</v>
       </c>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
       <c r="I13" s="34">
         <f>SUMIF(G5:G9,"computer",F5:F9)</f>
         <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
       <c r="I15" s="34">
         <f>COUNTIF(F5:F9,"&gt;35")</f>
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
       <c r="I16" s="34">
         <f>AVERAGEIF(F5:F9,"&lt;45")</f>
         <v>33.333333333333336</v>
@@ -4024,13 +4087,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="12" t="s">
@@ -4048,16 +4111,16 @@
         <f>VLOOKUP(A4,A9:D14,3,0)</f>
         <v>7865987789</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
@@ -4067,16 +4130,16 @@
         <f>VLOOKUP(A5,A9:D14,4,0)</f>
         <v>deorali</v>
       </c>
-      <c r="H5" s="86" t="s">
+      <c r="H5" s="93" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
@@ -4086,14 +4149,14 @@
         <f>VLOOKUP(A6,A9:D14,2,0)</f>
         <v>eg@gmail.com</v>
       </c>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
@@ -4103,40 +4166,40 @@
         <f>VLOOKUP(A7,A9:D14,4,0)</f>
         <v>vajra</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="87"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="87"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="6" t="s">
@@ -4151,14 +4214,14 @@
       <c r="D10" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="6" t="s">
@@ -4249,123 +4312,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="H4" s="89" t="s">
+      <c r="H4" s="96" t="s">
         <v>166</v>
       </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="95" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
     </row>
     <row r="12" spans="1:13">
       <c r="B12" t="s">
         <v>167</v>
       </c>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4394,30 +4457,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="99" t="s">
         <v>170</v>
       </c>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
     </row>
     <row r="7" spans="1:8">
       <c r="E7" s="12" t="s">
@@ -4461,106 +4524,106 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="100" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
     </row>
     <row r="17" spans="2:17">
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
     </row>
     <row r="18" spans="2:17">
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
     </row>
     <row r="20" spans="2:17">
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
     </row>
     <row r="21" spans="2:17">
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="L21" s="91" t="s">
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="L21" s="98" t="s">
         <v>177</v>
       </c>
-      <c r="M21" s="91"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="91"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="91"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4590,35 +4653,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="H2" s="97" t="s">
+      <c r="H2" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="102" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="L3" s="98" t="s">
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="L3" s="105" t="s">
         <v>181</v>
       </c>
       <c r="M3" t="s">
@@ -4629,16 +4692,16 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="96"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="L4" s="99"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="L4" s="106"/>
       <c r="M4" t="s">
         <v>184</v>
       </c>
@@ -4647,16 +4710,16 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="96"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="L5" s="99"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="L5" s="106"/>
       <c r="M5" t="s">
         <v>185</v>
       </c>
@@ -4665,26 +4728,26 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="96"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="96"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
+      <c r="A7" s="103"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="L7" s="16" t="s">
         <v>182</v>
       </c>
@@ -4697,70 +4760,70 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="96"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
       <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="96"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="L9" s="91" t="s">
+      <c r="A9" s="103"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="L9" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="M9" s="91"/>
+      <c r="M9" s="98"/>
       <c r="N9" s="23">
         <f>N7*30*12</f>
         <v>-11595347.057062184</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="96"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="96"/>
-      <c r="B11" s="96"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
+      <c r="A11" s="103"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="96"/>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
+      <c r="A12" s="103"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="96"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
+      <c r="A13" s="103"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4793,13 +4856,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="1:8">
       <c r="H2" s="16" t="s">
@@ -4807,12 +4870,12 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
       <c r="H3" s="20" t="s">
         <v>201</v>
       </c>
@@ -4823,14 +4886,14 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="71" t="s">
         <v>190</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="E5" s="46" t="s">
+      <c r="C5" s="71"/>
+      <c r="E5" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="F5" s="46"/>
+      <c r="F5" s="53"/>
       <c r="H5" s="20" t="s">
         <v>203</v>
       </c>
@@ -4842,10 +4905,10 @@
       <c r="C6" t="s">
         <v>196</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="F6" s="46"/>
+      <c r="F6" s="53"/>
       <c r="H6" s="20" t="s">
         <v>204</v>
       </c>
@@ -4960,149 +5023,149 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="107" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="101"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
+      <c r="A3" s="108"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="101"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
+      <c r="A4" s="108"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="101"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="101"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
+      <c r="A6" s="108"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="101"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="101"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="101"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
     </row>
     <row r="11" spans="1:21">
       <c r="B11" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="109" t="s">
         <v>220</v>
       </c>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="102"/>
-      <c r="S11" s="102"/>
-      <c r="T11" s="102"/>
-      <c r="U11" s="102"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="109"/>
+      <c r="R11" s="109"/>
+      <c r="S11" s="109"/>
+      <c r="T11" s="109"/>
+      <c r="U11" s="109"/>
     </row>
     <row r="13" spans="1:21">
       <c r="B13" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="C13" s="102" t="s">
+      <c r="C13" s="109" t="s">
         <v>221</v>
       </c>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="102"/>
-      <c r="S13" s="102"/>
-      <c r="T13" s="102"/>
-      <c r="U13" s="102"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="109"/>
+      <c r="R13" s="109"/>
+      <c r="S13" s="109"/>
+      <c r="T13" s="109"/>
+      <c r="U13" s="109"/>
     </row>
     <row r="15" spans="1:21">
       <c r="B15" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="C15" s="102" t="s">
+      <c r="C15" s="109" t="s">
         <v>222</v>
       </c>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="102"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="102"/>
-      <c r="S15" s="102"/>
-      <c r="T15" s="102"/>
-      <c r="U15" s="102"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="109"/>
+      <c r="O15" s="109"/>
+      <c r="P15" s="109"/>
+      <c r="Q15" s="109"/>
+      <c r="R15" s="109"/>
+      <c r="S15" s="109"/>
+      <c r="T15" s="109"/>
+      <c r="U15" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5192,88 +5255,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="102" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="96"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="96"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="96"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="96"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="96"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
+      <c r="A7" s="103"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="96"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="96"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
+      <c r="A9" s="103"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="E11" s="103" t="s">
+      <c r="E11" s="110" t="s">
         <v>230</v>
       </c>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
     </row>
     <row r="12" spans="1:8">
       <c r="E12" s="25" t="s">
@@ -5363,319 +5426,319 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="4" spans="2:14">
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
     </row>
     <row r="105" spans="15:15">
       <c r="O105" s="1"/>
@@ -5701,53 +5764,53 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="111" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="104"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="104"/>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="105" t="s">
+      <c r="A13" s="112" t="s">
         <v>243</v>
       </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="F13" s="105" t="s">
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="F13" s="112" t="s">
         <v>244</v>
       </c>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5784,128 +5847,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="113" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="106"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="106"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="106"/>
+      <c r="A4" s="113"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="113"/>
+      <c r="P4" s="113"/>
+      <c r="Q4" s="113"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="106"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="106"/>
+      <c r="A5" s="113"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="106"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="106"/>
-      <c r="O6" s="106"/>
-      <c r="P6" s="106"/>
-      <c r="Q6" s="106"/>
+      <c r="A6" s="113"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="113"/>
+      <c r="P6" s="113"/>
+      <c r="Q6" s="113"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="114" t="s">
         <v>246</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
       <c r="E7" t="s">
         <v>247</v>
       </c>
@@ -6527,11 +6590,11 @@
   <sheetData>
     <row r="1" spans="1:20" ht="28.5">
       <c r="A1" s="12"/>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="118" t="s">
         <v>297</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -6542,190 +6605,190 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
       <c r="R1" s="12"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="103" t="s">
         <v>298</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="103" t="s">
         <v>299</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="103" t="s">
         <v>300</v>
       </c>
-      <c r="E2" s="95" t="s">
+      <c r="E2" s="102" t="s">
         <v>321</v>
       </c>
-      <c r="F2" s="95" t="s">
+      <c r="F2" s="102" t="s">
         <v>322</v>
       </c>
-      <c r="G2" s="96" t="s">
+      <c r="G2" s="103" t="s">
         <v>301</v>
       </c>
-      <c r="H2" s="118" t="s">
+      <c r="H2" s="119" t="s">
         <v>302</v>
       </c>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="96"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="111"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1">
-      <c r="A4" s="96"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="113" t="s">
+      <c r="A4" s="103"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="121" t="s">
         <v>303</v>
       </c>
-      <c r="I4" s="113" t="s">
+      <c r="I4" s="121" t="s">
         <v>304</v>
       </c>
-      <c r="J4" s="119" t="s">
+      <c r="J4" s="116" t="s">
         <v>324</v>
       </c>
-      <c r="K4" s="114" t="s">
+      <c r="K4" s="120" t="s">
         <v>326</v>
       </c>
-      <c r="L4" s="114" t="s">
+      <c r="L4" s="120" t="s">
         <v>323</v>
       </c>
-      <c r="M4" s="115" t="s">
+      <c r="M4" s="122" t="s">
         <v>325</v>
       </c>
-      <c r="N4" s="115"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="119" t="s">
+      <c r="N4" s="122"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="116" t="s">
         <v>320</v>
       </c>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="109" t="s">
+      <c r="Q4" s="116"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="125" t="s">
         <v>328</v>
       </c>
-      <c r="T4" s="60" t="s">
+      <c r="T4" s="67" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="96"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="119"/>
-      <c r="Q5" s="119"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="110"/>
-      <c r="T5" s="61"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="126"/>
+      <c r="T5" s="68"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="96"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="90" t="s">
+      <c r="A6" s="103"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="97" t="s">
         <v>305</v>
       </c>
-      <c r="K6" s="90" t="s">
+      <c r="K6" s="97" t="s">
         <v>306</v>
       </c>
-      <c r="L6" s="113" t="s">
+      <c r="L6" s="121" t="s">
         <v>304</v>
       </c>
-      <c r="M6" s="113" t="s">
+      <c r="M6" s="121" t="s">
         <v>318</v>
       </c>
-      <c r="N6" s="116" t="s">
+      <c r="N6" s="123" t="s">
         <v>306</v>
       </c>
-      <c r="O6" s="81" t="s">
+      <c r="O6" s="88" t="s">
         <v>319</v>
       </c>
-      <c r="P6" s="81" t="s">
+      <c r="P6" s="88" t="s">
         <v>318</v>
       </c>
-      <c r="Q6" s="81" t="s">
+      <c r="Q6" s="88" t="s">
         <v>306</v>
       </c>
-      <c r="R6" s="108" t="s">
+      <c r="R6" s="124" t="s">
         <v>327</v>
       </c>
-      <c r="S6" s="110"/>
-      <c r="T6" s="61"/>
+      <c r="S6" s="126"/>
+      <c r="T6" s="68"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="96"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="110"/>
-      <c r="T7" s="61"/>
+      <c r="A7" s="103"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="124"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="68"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
@@ -7222,22 +7285,22 @@
       <c r="M18" s="37"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="120" t="s">
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="40" t="s">
         <v>335</v>
       </c>
       <c r="M19" s="37"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="47" t="s">
         <v>331</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
       <c r="E20" t="str">
         <f>INDEX(B8:B14,MATCH(MAX(S8:S14),S8:S14))</f>
         <v>neha</v>
@@ -7245,33 +7308,33 @@
       <c r="M20" s="37"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="47" t="s">
         <v>332</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
       <c r="E21" t="str">
         <f>INDEX(B8:B14,MATCH(MIN(S8:S14),S8:S14))</f>
         <v>john</v>
       </c>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="47" t="s">
         <v>333</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
       <c r="E22">
         <f>AVERAGE(S8:S14)</f>
         <v>25285.714285714286</v>
       </c>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="47" t="s">
         <v>334</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
       <c r="E23">
         <f>SUM(S8:S14)</f>
         <v>177000</v>
@@ -7279,19 +7342,22 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="O2:Q3"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S4:S7"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="T4:T7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="H2:K3"/>
     <mergeCell ref="K4:K5"/>
@@ -7304,22 +7370,19 @@
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="B2:B7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="T4:T7"/>
+    <mergeCell ref="O2:Q3"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7330,8 +7393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7352,7 +7415,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" ht="65.25">
       <c r="B3" t="s">
         <v>338</v>
       </c>
@@ -7363,12 +7426,12 @@
         <f>"("&amp;B3&amp;")"</f>
         <v>(GJ0012889)</v>
       </c>
-      <c r="E3" s="121" t="str">
+      <c r="E3" s="128" t="str">
         <f>"*"&amp;B3&amp;"*"</f>
         <v>*GJ0012889*</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" ht="65.25">
       <c r="B4" t="s">
         <v>339</v>
       </c>
@@ -7379,8 +7442,12 @@
         <f t="shared" ref="D4:D8" si="0">"("&amp;B4&amp;")"</f>
         <v>(GJ0012890)</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
+      <c r="E4" s="128" t="str">
+        <f>"*"&amp;B4&amp;"*"</f>
+        <v>*GJ0012890*</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="65.25">
       <c r="B5" t="s">
         <v>340</v>
       </c>
@@ -7391,8 +7458,12 @@
         <f t="shared" si="0"/>
         <v>(GJ0012891)</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="128" t="str">
+        <f>"*"&amp;B5&amp;"*"</f>
+        <v>*GJ0012891*</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="65.25">
       <c r="B6" t="s">
         <v>341</v>
       </c>
@@ -7403,8 +7474,12 @@
         <f t="shared" si="0"/>
         <v>(GJ0012892)</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
+      <c r="E6" s="128" t="str">
+        <f>"*"&amp;B6&amp;"*"</f>
+        <v>*GJ0012892*</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="65.25">
       <c r="B7" t="s">
         <v>342</v>
       </c>
@@ -7415,8 +7490,12 @@
         <f t="shared" si="0"/>
         <v>(GJ0012893)</v>
       </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="128" t="str">
+        <f>"*"&amp;B7&amp;"*"</f>
+        <v>*GJ0012893*</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="65.25">
       <c r="B8" t="s">
         <v>343</v>
       </c>
@@ -7426,6 +7505,10 @@
       <c r="D8" t="str">
         <f t="shared" si="0"/>
         <v>(GJ0012894)</v>
+      </c>
+      <c r="E8" s="128" t="str">
+        <f>"*"&amp;B8&amp;"*"</f>
+        <v>*GJ0012894*</v>
       </c>
     </row>
   </sheetData>
@@ -7438,7 +7521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -7450,27 +7533,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="115" t="s">
         <v>350</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="127" t="s">
         <v>351</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="41" t="s">
         <v>352</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="42" t="s">
         <v>353</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="43" t="s">
         <v>354</v>
       </c>
     </row>
@@ -7552,7 +7635,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="126" t="s">
+      <c r="B11" s="44" t="s">
         <v>369</v>
       </c>
       <c r="C11">
@@ -7561,7 +7644,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="127" t="s">
+      <c r="B12" s="45" t="s">
         <v>370</v>
       </c>
       <c r="C12">
@@ -7570,7 +7653,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="46" t="s">
         <v>371</v>
       </c>
       <c r="C13">
@@ -7583,6 +7666,171 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="41" t="s">
+        <v>372</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2" s="14">
+        <v>43862</v>
+      </c>
+      <c r="D2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C3" s="14">
+        <v>44621</v>
+      </c>
+      <c r="D3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C4" s="14">
+        <v>44652</v>
+      </c>
+      <c r="D4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C5" s="14">
+        <v>44622</v>
+      </c>
+      <c r="D5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C6" s="14">
+        <v>44622</v>
+      </c>
+      <c r="D6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C7" s="14">
+        <v>44745</v>
+      </c>
+      <c r="D7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C8" s="14">
+        <v>44777</v>
+      </c>
+      <c r="D8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>389</v>
+      </c>
+      <c r="B9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C9" s="14">
+        <v>44777</v>
+      </c>
+      <c r="D9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" t="s">
+        <v>383</v>
+      </c>
+      <c r="C10" s="14">
+        <v>44808</v>
+      </c>
+      <c r="D10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:D2">
+      <formula1>$A$2:$D$2</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7602,69 +7850,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="48"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="48"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
       <c r="K5">
         <v>123456789</v>
       </c>
-      <c r="M5" s="46">
+      <c r="M5" s="53">
         <v>-123456789</v>
       </c>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46" t="s">
+      <c r="N5" s="53"/>
+      <c r="O5" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
     </row>
     <row r="6" spans="1:17" ht="30" customHeight="1">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="61" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4">
@@ -7674,13 +7922,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -7691,7 +7939,7 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="55"/>
+      <c r="A7" s="62"/>
       <c r="B7">
         <v>2</v>
       </c>
@@ -7715,7 +7963,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="55"/>
+      <c r="A8" s="62"/>
       <c r="B8">
         <v>3</v>
       </c>
@@ -7739,7 +7987,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="55"/>
+      <c r="A9" s="62"/>
       <c r="B9">
         <v>4</v>
       </c>
@@ -7748,7 +7996,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="55"/>
+      <c r="A10" s="62"/>
       <c r="B10">
         <v>5</v>
       </c>
@@ -7775,13 +8023,13 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
       <c r="H13">
         <v>6</v>
       </c>
@@ -7799,13 +8047,13 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
     </row>
     <row r="17" spans="1:10">
       <c r="H17" t="s">
@@ -7819,16 +8067,16 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
       <c r="H18" t="s">
         <v>34</v>
       </c>
@@ -7840,12 +8088,12 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="48"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
       <c r="H19" t="s">
         <v>36</v>
       </c>
@@ -7857,12 +8105,12 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="48"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
       <c r="H20" t="s">
         <v>37</v>
       </c>
@@ -7885,11 +8133,11 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
@@ -8068,24 +8316,24 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="52"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
+      <c r="A41" s="59"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="52"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -8122,23 +8370,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -8172,44 +8420,44 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="61"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8238,116 +8486,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="H3" s="65" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="H3" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
     </row>
     <row r="8" spans="1:14">
       <c r="B8" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
     </row>
     <row r="9" spans="1:14">
       <c r="B9" t="s">
@@ -8366,13 +8614,13 @@
         <f t="array" ref="F9">LEN(E9)</f>
         <v>13</v>
       </c>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
     </row>
     <row r="10" spans="1:14">
       <c r="B10" t="s">
@@ -8488,17 +8736,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="74" t="s">
         <v>70</v>
       </c>
       <c r="B3" t="s">
@@ -8515,7 +8763,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="68"/>
+      <c r="A4" s="75"/>
       <c r="C4" s="5" t="s">
         <v>78</v>
       </c>
@@ -8531,7 +8779,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="68"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="5" t="s">
         <v>73</v>
       </c>
@@ -8551,7 +8799,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="68"/>
+      <c r="A6" s="75"/>
       <c r="B6" s="5" t="s">
         <v>74</v>
       </c>
@@ -8567,7 +8815,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="68"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="5" t="s">
         <v>75</v>
       </c>
@@ -8583,7 +8831,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="68"/>
+      <c r="A8" s="75"/>
       <c r="B8" s="5" t="s">
         <v>72</v>
       </c>
@@ -8595,7 +8843,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="68"/>
+      <c r="A9" s="75"/>
       <c r="B9" s="5" t="s">
         <v>76</v>
       </c>
@@ -8610,86 +8858,86 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="70"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="70"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="70"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="70"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="70"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="70"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8717,14 +8965,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
@@ -8797,72 +9045,72 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="72"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="72"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="72"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="72"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8893,87 +9141,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="73"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="54" t="s">
         <v>102</v>
       </c>
       <c r="D7" s="14">
         <f ca="1">TODAY()</f>
-        <v>44726</v>
-      </c>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
+        <v>44727</v>
+      </c>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="C8" s="48"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="15">
         <f ca="1">NOW()</f>
-        <v>44726.235103240739</v>
-      </c>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
+        <v>44727.747035763889</v>
+      </c>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="54" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="14">
@@ -8983,15 +9231,15 @@
         <f>DAY(C10)</f>
         <v>1</v>
       </c>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="B11" s="48"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="14">
         <v>43892</v>
       </c>
@@ -9001,7 +9249,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="B12" s="48"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="14">
         <v>43831</v>
       </c>
@@ -9037,14 +9285,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="3" spans="1:12">
       <c r="B3" s="7" t="s">
@@ -9064,18 +9312,18 @@
       <c r="C4">
         <v>23</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="83" t="s">
         <v>114</v>
       </c>
       <c r="I4" s="6">
         <f>SUM(C4:C8)</f>
         <v>94</v>
       </c>
-      <c r="J4" s="78" t="s">
+      <c r="J4" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" t="s">
@@ -9084,14 +9332,14 @@
       <c r="C5">
         <v>23</v>
       </c>
-      <c r="G5" s="77"/>
+      <c r="G5" s="84"/>
       <c r="I5" s="6">
         <f>MIN(C4:C8)</f>
         <v>23</v>
       </c>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" t="s">
@@ -9100,24 +9348,24 @@
       <c r="C6">
         <v>25</v>
       </c>
-      <c r="G6" s="77"/>
+      <c r="G6" s="84"/>
       <c r="I6" s="6">
         <f>MAX(C4:C8)</f>
         <v>25</v>
       </c>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="G7" s="77"/>
+      <c r="G7" s="84"/>
       <c r="I7" s="6">
         <f>AVERAGE(C4:C8)</f>
         <v>23.5</v>
       </c>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" t="s">
@@ -9126,187 +9374,187 @@
       <c r="C8">
         <v>23</v>
       </c>
-      <c r="G8" s="77"/>
+      <c r="G8" s="84"/>
       <c r="I8" s="6">
         <f>COUNT(C4:C8)</f>
         <v>4</v>
       </c>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
     </row>
     <row r="9" spans="1:12">
       <c r="C9">
         <v>35</v>
       </c>
-      <c r="G9" s="77"/>
+      <c r="G9" s="84"/>
       <c r="I9" s="6">
         <f>COUNTA(C4:C8)</f>
         <v>4</v>
       </c>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
     </row>
     <row r="10" spans="1:12">
       <c r="C10">
         <v>34</v>
       </c>
-      <c r="G10" s="77"/>
+      <c r="G10" s="84"/>
       <c r="I10" s="6">
         <f>COUNTBLANK(C4:C8)</f>
         <v>1</v>
       </c>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
     </row>
     <row r="11" spans="1:12">
       <c r="C11">
         <v>27</v>
       </c>
-      <c r="G11" s="77"/>
+      <c r="G11" s="84"/>
       <c r="I11" s="6">
         <f>SMALL(C4:C8,3)</f>
         <v>23</v>
       </c>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="G12" s="77"/>
+      <c r="G12" s="84"/>
       <c r="I12" s="6">
         <f>LARGE(C4:C15,1)</f>
         <v>35</v>
       </c>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/MS Excel Namrata (1) (2) (3) (2) (2) (2) (1).xlsx
+++ b/MS Excel Namrata (1) (2) (3) (2) (2) (2) (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" firstSheet="18" activeTab="24"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" firstSheet="17" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,14 +31,13 @@
     <sheet name="Sheet22" sheetId="24" r:id="rId22"/>
     <sheet name="Sheet23" sheetId="25" r:id="rId23"/>
     <sheet name="Sheet24" sheetId="26" r:id="rId24"/>
-    <sheet name="Sheet25" sheetId="27" r:id="rId25"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="372">
   <si>
     <t xml:space="preserve">A spreadsheet is a software program you use to easily perform mathematical calculations on statistical data and totaling long columns of numbers or determining percentage and averages
 </t>
@@ -1242,66 +1241,6 @@
   </si>
   <si>
     <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Student Name</t>
-  </si>
-  <si>
-    <t>Batch</t>
-  </si>
-  <si>
-    <t>Admission Date</t>
-  </si>
-  <si>
-    <t>Timing</t>
-  </si>
-  <si>
-    <t>DCA</t>
-  </si>
-  <si>
-    <t>7:30am</t>
-  </si>
-  <si>
-    <t>dca</t>
-  </si>
-  <si>
-    <t>6:30pm</t>
-  </si>
-  <si>
-    <t>pgdca</t>
-  </si>
-  <si>
-    <t>4:30pm</t>
-  </si>
-  <si>
-    <t>priya sharma</t>
-  </si>
-  <si>
-    <t>tally</t>
-  </si>
-  <si>
-    <t>3:00pm</t>
-  </si>
-  <si>
-    <t>john gurung</t>
-  </si>
-  <si>
-    <t>2:00pm</t>
-  </si>
-  <si>
-    <t>5:30pm</t>
-  </si>
-  <si>
-    <t>1:00pm</t>
-  </si>
-  <si>
-    <t>noyal gurung</t>
-  </si>
-  <si>
-    <t>5:00pm</t>
-  </si>
-  <si>
-    <t>7:30pm</t>
   </si>
 </sst>
 </file>
@@ -1363,9 +1302,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="IDAHC39M Code 39 Barcode"/>
-      <family val="1"/>
-      <charset val="2"/>
+      <name val="IDAUTOMATION"/>
     </font>
   </fonts>
   <fills count="30">
@@ -1642,7 +1579,251 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
@@ -1651,250 +1832,6 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2003,24 +1940,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93255936"/>
-        <c:axId val="93597696"/>
+        <c:axId val="60576896"/>
+        <c:axId val="60578432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93255936"/>
+        <c:axId val="60576896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93597696"/>
+        <c:crossAx val="60578432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93597696"/>
+        <c:axId val="60578432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2028,7 +1965,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93255936"/>
+        <c:crossAx val="60576896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2040,7 +1977,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3407,299 +3344,299 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="H8" s="52" t="s">
+      <c r="D8" s="45"/>
+      <c r="H8" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="50" t="s">
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
     </row>
     <row r="17" spans="4:13">
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
     </row>
     <row r="18" spans="4:13">
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
     </row>
     <row r="20" spans="4:13">
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48" t="s">
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
     </row>
     <row r="21" spans="4:13">
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
     </row>
     <row r="22" spans="4:13">
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
     </row>
     <row r="23" spans="4:13">
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
     </row>
     <row r="24" spans="4:13">
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
     </row>
     <row r="25" spans="4:13">
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
     </row>
     <row r="26" spans="4:13">
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
     </row>
     <row r="28" spans="4:13">
-      <c r="D28" s="47" t="s">
+      <c r="D28" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="50" t="s">
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
     </row>
     <row r="29" spans="4:13">
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
     </row>
     <row r="30" spans="4:13">
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
     </row>
     <row r="31" spans="4:13">
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
     </row>
     <row r="32" spans="4:13">
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
     </row>
     <row r="33" spans="8:13">
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
     </row>
     <row r="34" spans="8:13">
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3728,39 +3665,39 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="4" spans="1:13">
       <c r="B4" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="89">
+      <c r="G4" s="82">
         <f>COUNTIF(B5:B14,"apples")</f>
         <v>2</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
     </row>
     <row r="5" spans="1:13">
       <c r="B5" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="89"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" t="s">
@@ -3781,65 +3718,65 @@
       <c r="B9" t="s">
         <v>124</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
     </row>
     <row r="10" spans="1:13">
       <c r="B10" t="s">
         <v>125</v>
       </c>
-      <c r="G10" s="67" t="s">
+      <c r="G10" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
     </row>
     <row r="11" spans="1:13">
       <c r="B11" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
     </row>
     <row r="12" spans="1:13">
       <c r="B12" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
     </row>
     <row r="13" spans="1:13">
       <c r="B13" t="s">
         <v>128</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
     </row>
     <row r="14" spans="1:13">
       <c r="B14" t="s">
@@ -3869,30 +3806,30 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="K4" s="70" t="s">
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="K4" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
     </row>
     <row r="5" spans="1:18">
       <c r="E5" t="s">
@@ -3904,16 +3841,16 @@
       <c r="G5" t="s">
         <v>139</v>
       </c>
-      <c r="K5" s="90" t="s">
+      <c r="K5" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
     </row>
     <row r="6" spans="1:18">
       <c r="E6" t="s">
@@ -3925,14 +3862,14 @@
       <c r="G6" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="91"/>
-      <c r="R6" s="91"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
     </row>
     <row r="7" spans="1:18">
       <c r="E7" t="s">
@@ -3944,14 +3881,14 @@
       <c r="G7" t="s">
         <v>141</v>
       </c>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="91"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
     </row>
     <row r="8" spans="1:18">
       <c r="E8" t="s">
@@ -3963,14 +3900,14 @@
       <c r="G8" t="s">
         <v>139</v>
       </c>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="91"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="91"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="84"/>
     </row>
     <row r="9" spans="1:18">
       <c r="E9" t="s">
@@ -3982,73 +3919,73 @@
       <c r="G9" t="s">
         <v>141</v>
       </c>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="91"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="57"/>
+      <c r="D11" s="50"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="53" t="s">
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
       <c r="I12" s="33">
         <f>SUMIF(F5:F9,"&lt;100")</f>
         <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="E13" s="92" t="s">
+      <c r="E13" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
       <c r="I13" s="34">
         <f>SUMIF(G5:G9,"computer",F5:F9)</f>
         <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
       <c r="I15" s="34">
         <f>COUNTIF(F5:F9,"&gt;35")</f>
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
       <c r="I16" s="34">
         <f>AVERAGEIF(F5:F9,"&lt;45")</f>
         <v>33.333333333333336</v>
@@ -4087,13 +4024,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="12" t="s">
@@ -4111,16 +4048,16 @@
         <f>VLOOKUP(A4,A9:D14,3,0)</f>
         <v>7865987789</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
@@ -4130,16 +4067,16 @@
         <f>VLOOKUP(A5,A9:D14,4,0)</f>
         <v>deorali</v>
       </c>
-      <c r="H5" s="93" t="s">
+      <c r="H5" s="86" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
@@ -4149,14 +4086,14 @@
         <f>VLOOKUP(A6,A9:D14,2,0)</f>
         <v>eg@gmail.com</v>
       </c>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
@@ -4166,40 +4103,40 @@
         <f>VLOOKUP(A7,A9:D14,4,0)</f>
         <v>vajra</v>
       </c>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="87"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="6" t="s">
@@ -4214,14 +4151,14 @@
       <c r="D10" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="6" t="s">
@@ -4312,123 +4249,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="H4" s="96" t="s">
+      <c r="H4" s="89" t="s">
         <v>166</v>
       </c>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="88" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="97"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="97"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="97"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
     </row>
     <row r="12" spans="1:13">
       <c r="B12" t="s">
         <v>167</v>
       </c>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="97"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4457,30 +4394,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="92" t="s">
         <v>170</v>
       </c>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
     </row>
     <row r="7" spans="1:8">
       <c r="E7" s="12" t="s">
@@ -4524,106 +4461,106 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="93" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="B14" s="101"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
     </row>
     <row r="17" spans="2:17">
-      <c r="B17" s="101"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
     </row>
     <row r="18" spans="2:17">
-      <c r="B18" s="101"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="101"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
     </row>
     <row r="20" spans="2:17">
-      <c r="B20" s="101"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
     </row>
     <row r="21" spans="2:17">
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="L21" s="98" t="s">
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="L21" s="91" t="s">
         <v>177</v>
       </c>
-      <c r="M21" s="98"/>
-      <c r="N21" s="98"/>
-      <c r="O21" s="98"/>
-      <c r="P21" s="98"/>
-      <c r="Q21" s="98"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4653,35 +4590,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="H2" s="104" t="s">
+      <c r="H2" s="97" t="s">
         <v>180</v>
       </c>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="95" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="L3" s="105" t="s">
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="L3" s="98" t="s">
         <v>181</v>
       </c>
       <c r="M3" t="s">
@@ -4692,16 +4629,16 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="103"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="L4" s="106"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="L4" s="99"/>
       <c r="M4" t="s">
         <v>184</v>
       </c>
@@ -4710,16 +4647,16 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="103"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="L5" s="106"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="L5" s="99"/>
       <c r="M5" t="s">
         <v>185</v>
       </c>
@@ -4728,26 +4665,26 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="103"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="103"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="A7" s="96"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
       <c r="L7" s="16" t="s">
         <v>182</v>
       </c>
@@ -4760,70 +4697,70 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="103"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
+      <c r="A8" s="96"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
       <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="103"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="L9" s="98" t="s">
+      <c r="A9" s="96"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="L9" s="91" t="s">
         <v>187</v>
       </c>
-      <c r="M9" s="98"/>
+      <c r="M9" s="91"/>
       <c r="N9" s="23">
         <f>N7*30*12</f>
         <v>-11595347.057062184</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="103"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="103"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
+      <c r="A11" s="96"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="103"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
+      <c r="A12" s="96"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="103"/>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
+      <c r="A13" s="96"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4856,13 +4793,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:8">
       <c r="H2" s="16" t="s">
@@ -4870,12 +4807,12 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
       <c r="H3" s="20" t="s">
         <v>201</v>
       </c>
@@ -4886,14 +4823,14 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="E5" s="53" t="s">
+      <c r="C5" s="64"/>
+      <c r="E5" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="F5" s="53"/>
+      <c r="F5" s="46"/>
       <c r="H5" s="20" t="s">
         <v>203</v>
       </c>
@@ -4905,10 +4842,10 @@
       <c r="C6" t="s">
         <v>196</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="F6" s="53"/>
+      <c r="F6" s="46"/>
       <c r="H6" s="20" t="s">
         <v>204</v>
       </c>
@@ -5023,149 +4960,149 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="100" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="108"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="A3" s="101"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="108"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
+      <c r="A4" s="101"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="108"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
+      <c r="A5" s="101"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="108"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
+      <c r="A6" s="101"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="108"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
+      <c r="A7" s="101"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="108"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
+      <c r="A8" s="101"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="108"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
+      <c r="A9" s="101"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
     </row>
     <row r="11" spans="1:21">
       <c r="B11" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="109"/>
-      <c r="T11" s="109"/>
-      <c r="U11" s="109"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="102"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="102"/>
     </row>
     <row r="13" spans="1:21">
       <c r="B13" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="C13" s="109" t="s">
+      <c r="C13" s="102" t="s">
         <v>221</v>
       </c>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="109"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="109"/>
-      <c r="O13" s="109"/>
-      <c r="P13" s="109"/>
-      <c r="Q13" s="109"/>
-      <c r="R13" s="109"/>
-      <c r="S13" s="109"/>
-      <c r="T13" s="109"/>
-      <c r="U13" s="109"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="102"/>
+      <c r="S13" s="102"/>
+      <c r="T13" s="102"/>
+      <c r="U13" s="102"/>
     </row>
     <row r="15" spans="1:21">
       <c r="B15" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="C15" s="109" t="s">
+      <c r="C15" s="102" t="s">
         <v>222</v>
       </c>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="109"/>
-      <c r="L15" s="109"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="109"/>
-      <c r="O15" s="109"/>
-      <c r="P15" s="109"/>
-      <c r="Q15" s="109"/>
-      <c r="R15" s="109"/>
-      <c r="S15" s="109"/>
-      <c r="T15" s="109"/>
-      <c r="U15" s="109"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="102"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="102"/>
+      <c r="S15" s="102"/>
+      <c r="T15" s="102"/>
+      <c r="U15" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5255,88 +5192,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="103"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="103"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="103"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="103"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="103"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
+      <c r="A7" s="96"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="103"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
+      <c r="A8" s="96"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="103"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
+      <c r="A9" s="96"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="E11" s="110" t="s">
+      <c r="E11" s="103" t="s">
         <v>230</v>
       </c>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
     </row>
     <row r="12" spans="1:8">
       <c r="E12" s="25" t="s">
@@ -5426,319 +5363,319 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="4" spans="2:14">
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
     </row>
     <row r="105" spans="15:15">
       <c r="O105" s="1"/>
@@ -5764,53 +5701,53 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="104" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="105" t="s">
         <v>243</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="F13" s="112" t="s">
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="F13" s="105" t="s">
         <v>244</v>
       </c>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5847,128 +5784,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="106" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="113"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="113"/>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
+      <c r="A3" s="106"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="113"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
-      <c r="N4" s="113"/>
-      <c r="O4" s="113"/>
-      <c r="P4" s="113"/>
-      <c r="Q4" s="113"/>
+      <c r="A4" s="106"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="113"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
+      <c r="A5" s="106"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="113"/>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="113"/>
-      <c r="O6" s="113"/>
-      <c r="P6" s="113"/>
-      <c r="Q6" s="113"/>
+      <c r="A6" s="106"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
+      <c r="Q6" s="106"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="107" t="s">
         <v>246</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
       <c r="E7" t="s">
         <v>247</v>
       </c>
@@ -6590,11 +6527,11 @@
   <sheetData>
     <row r="1" spans="1:20" ht="28.5">
       <c r="A1" s="12"/>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="117" t="s">
         <v>297</v>
       </c>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -6605,190 +6542,190 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
       <c r="R1" s="12"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="96" t="s">
         <v>298</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="96" t="s">
         <v>299</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="96" t="s">
         <v>300</v>
       </c>
-      <c r="E2" s="102" t="s">
+      <c r="E2" s="95" t="s">
         <v>321</v>
       </c>
-      <c r="F2" s="102" t="s">
+      <c r="F2" s="95" t="s">
         <v>322</v>
       </c>
-      <c r="G2" s="103" t="s">
+      <c r="G2" s="96" t="s">
         <v>301</v>
       </c>
-      <c r="H2" s="119" t="s">
+      <c r="H2" s="118" t="s">
         <v>302</v>
       </c>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="103"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1">
-      <c r="A4" s="103"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="121" t="s">
+      <c r="A4" s="96"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="113" t="s">
         <v>303</v>
       </c>
-      <c r="I4" s="121" t="s">
+      <c r="I4" s="113" t="s">
         <v>304</v>
       </c>
-      <c r="J4" s="116" t="s">
+      <c r="J4" s="119" t="s">
         <v>324</v>
       </c>
-      <c r="K4" s="120" t="s">
+      <c r="K4" s="114" t="s">
         <v>326</v>
       </c>
-      <c r="L4" s="120" t="s">
+      <c r="L4" s="114" t="s">
         <v>323</v>
       </c>
-      <c r="M4" s="122" t="s">
+      <c r="M4" s="115" t="s">
         <v>325</v>
       </c>
-      <c r="N4" s="122"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="116" t="s">
+      <c r="N4" s="115"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="119" t="s">
         <v>320</v>
       </c>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="125" t="s">
+      <c r="Q4" s="119"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="109" t="s">
         <v>328</v>
       </c>
-      <c r="T4" s="67" t="s">
+      <c r="T4" s="60" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="103"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="126"/>
-      <c r="T5" s="68"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="110"/>
+      <c r="T5" s="61"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="103"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="97" t="s">
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="90" t="s">
         <v>305</v>
       </c>
-      <c r="K6" s="97" t="s">
+      <c r="K6" s="90" t="s">
         <v>306</v>
       </c>
-      <c r="L6" s="121" t="s">
+      <c r="L6" s="113" t="s">
         <v>304</v>
       </c>
-      <c r="M6" s="121" t="s">
+      <c r="M6" s="113" t="s">
         <v>318</v>
       </c>
-      <c r="N6" s="123" t="s">
+      <c r="N6" s="116" t="s">
         <v>306</v>
       </c>
-      <c r="O6" s="88" t="s">
+      <c r="O6" s="81" t="s">
         <v>319</v>
       </c>
-      <c r="P6" s="88" t="s">
+      <c r="P6" s="81" t="s">
         <v>318</v>
       </c>
-      <c r="Q6" s="88" t="s">
+      <c r="Q6" s="81" t="s">
         <v>306</v>
       </c>
-      <c r="R6" s="124" t="s">
+      <c r="R6" s="108" t="s">
         <v>327</v>
       </c>
-      <c r="S6" s="126"/>
-      <c r="T6" s="68"/>
+      <c r="S6" s="110"/>
+      <c r="T6" s="61"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="103"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="124"/>
-      <c r="S7" s="126"/>
-      <c r="T7" s="68"/>
+      <c r="A7" s="96"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="113"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="110"/>
+      <c r="T7" s="61"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
@@ -7285,22 +7222,22 @@
       <c r="M18" s="37"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="63" t="s">
         <v>330</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="40" t="s">
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="120" t="s">
         <v>335</v>
       </c>
       <c r="M19" s="37"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="40" t="s">
         <v>331</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
       <c r="E20" t="str">
         <f>INDEX(B8:B14,MATCH(MAX(S8:S14),S8:S14))</f>
         <v>neha</v>
@@ -7308,33 +7245,33 @@
       <c r="M20" s="37"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="40" t="s">
         <v>332</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
       <c r="E21" t="str">
         <f>INDEX(B8:B14,MATCH(MIN(S8:S14),S8:S14))</f>
         <v>john</v>
       </c>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="40" t="s">
         <v>333</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
       <c r="E22">
         <f>AVERAGE(S8:S14)</f>
         <v>25285.714285714286</v>
       </c>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="40" t="s">
         <v>334</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
       <c r="E23">
         <f>SUM(S8:S14)</f>
         <v>177000</v>
@@ -7342,22 +7279,19 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="T4:T7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="O2:Q3"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="P4:P5"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="H2:K3"/>
     <mergeCell ref="K4:K5"/>
@@ -7370,19 +7304,22 @@
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="B2:B7"/>
-    <mergeCell ref="O2:Q3"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S4:S7"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="T4:T7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7393,8 +7330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7415,7 +7352,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="65.25">
+    <row r="3" spans="2:5">
       <c r="B3" t="s">
         <v>338</v>
       </c>
@@ -7426,12 +7363,12 @@
         <f>"("&amp;B3&amp;")"</f>
         <v>(GJ0012889)</v>
       </c>
-      <c r="E3" s="128" t="str">
+      <c r="E3" s="121" t="str">
         <f>"*"&amp;B3&amp;"*"</f>
         <v>*GJ0012889*</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="65.25">
+    <row r="4" spans="2:5">
       <c r="B4" t="s">
         <v>339</v>
       </c>
@@ -7442,12 +7379,8 @@
         <f t="shared" ref="D4:D8" si="0">"("&amp;B4&amp;")"</f>
         <v>(GJ0012890)</v>
       </c>
-      <c r="E4" s="128" t="str">
-        <f>"*"&amp;B4&amp;"*"</f>
-        <v>*GJ0012890*</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="65.25">
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" t="s">
         <v>340</v>
       </c>
@@ -7458,12 +7391,8 @@
         <f t="shared" si="0"/>
         <v>(GJ0012891)</v>
       </c>
-      <c r="E5" s="128" t="str">
-        <f>"*"&amp;B5&amp;"*"</f>
-        <v>*GJ0012891*</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="65.25">
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" t="s">
         <v>341</v>
       </c>
@@ -7474,12 +7403,8 @@
         <f t="shared" si="0"/>
         <v>(GJ0012892)</v>
       </c>
-      <c r="E6" s="128" t="str">
-        <f>"*"&amp;B6&amp;"*"</f>
-        <v>*GJ0012892*</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="65.25">
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" t="s">
         <v>342</v>
       </c>
@@ -7490,12 +7415,8 @@
         <f t="shared" si="0"/>
         <v>(GJ0012893)</v>
       </c>
-      <c r="E7" s="128" t="str">
-        <f>"*"&amp;B7&amp;"*"</f>
-        <v>*GJ0012893*</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="65.25">
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" t="s">
         <v>343</v>
       </c>
@@ -7505,10 +7426,6 @@
       <c r="D8" t="str">
         <f t="shared" si="0"/>
         <v>(GJ0012894)</v>
-      </c>
-      <c r="E8" s="128" t="str">
-        <f>"*"&amp;B8&amp;"*"</f>
-        <v>*GJ0012894*</v>
       </c>
     </row>
   </sheetData>
@@ -7521,7 +7438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -7533,27 +7450,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="111" t="s">
         <v>350</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="122" t="s">
         <v>351</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="123" t="s">
         <v>352</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="124" t="s">
         <v>353</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="125" t="s">
         <v>354</v>
       </c>
     </row>
@@ -7635,7 +7552,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="126" t="s">
         <v>369</v>
       </c>
       <c r="C11">
@@ -7644,7 +7561,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="127" t="s">
         <v>370</v>
       </c>
       <c r="C12">
@@ -7653,7 +7570,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="128" t="s">
         <v>371</v>
       </c>
       <c r="C13">
@@ -7666,171 +7583,6 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="41" t="s">
-        <v>372</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C2" s="14">
-        <v>43862</v>
-      </c>
-      <c r="D2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B3" t="s">
-        <v>378</v>
-      </c>
-      <c r="C3" s="14">
-        <v>44621</v>
-      </c>
-      <c r="D3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>294</v>
-      </c>
-      <c r="B4" t="s">
-        <v>380</v>
-      </c>
-      <c r="C4" s="14">
-        <v>44652</v>
-      </c>
-      <c r="D4" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>382</v>
-      </c>
-      <c r="B5" t="s">
-        <v>383</v>
-      </c>
-      <c r="C5" s="14">
-        <v>44622</v>
-      </c>
-      <c r="D5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>385</v>
-      </c>
-      <c r="B6" t="s">
-        <v>378</v>
-      </c>
-      <c r="C6" s="14">
-        <v>44622</v>
-      </c>
-      <c r="D6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>290</v>
-      </c>
-      <c r="B7" t="s">
-        <v>380</v>
-      </c>
-      <c r="C7" s="14">
-        <v>44745</v>
-      </c>
-      <c r="D7" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>296</v>
-      </c>
-      <c r="B8" t="s">
-        <v>383</v>
-      </c>
-      <c r="C8" s="14">
-        <v>44777</v>
-      </c>
-      <c r="D8" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>389</v>
-      </c>
-      <c r="B9" t="s">
-        <v>378</v>
-      </c>
-      <c r="C9" s="14">
-        <v>44777</v>
-      </c>
-      <c r="D9" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>291</v>
-      </c>
-      <c r="B10" t="s">
-        <v>383</v>
-      </c>
-      <c r="C10" s="14">
-        <v>44808</v>
-      </c>
-      <c r="D10" t="s">
-        <v>391</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:D2">
-      <formula1>$A$2:$D$2</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7850,69 +7602,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="55"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="55"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
       <c r="K5">
         <v>123456789</v>
       </c>
-      <c r="M5" s="53">
+      <c r="M5" s="46">
         <v>-123456789</v>
       </c>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53" t="s">
+      <c r="N5" s="46"/>
+      <c r="O5" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
     </row>
     <row r="6" spans="1:17" ht="30" customHeight="1">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="54" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4">
@@ -7922,13 +7674,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -7939,7 +7691,7 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="62"/>
+      <c r="A7" s="55"/>
       <c r="B7">
         <v>2</v>
       </c>
@@ -7963,7 +7715,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="62"/>
+      <c r="A8" s="55"/>
       <c r="B8">
         <v>3</v>
       </c>
@@ -7987,7 +7739,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="62"/>
+      <c r="A9" s="55"/>
       <c r="B9">
         <v>4</v>
       </c>
@@ -7996,7 +7748,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="62"/>
+      <c r="A10" s="55"/>
       <c r="B10">
         <v>5</v>
       </c>
@@ -8023,13 +7775,13 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
       <c r="H13">
         <v>6</v>
       </c>
@@ -8047,13 +7799,13 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
     </row>
     <row r="17" spans="1:10">
       <c r="H17" t="s">
@@ -8067,16 +7819,16 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
       <c r="H18" t="s">
         <v>34</v>
       </c>
@@ -8088,12 +7840,12 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="55"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
       <c r="H19" t="s">
         <v>36</v>
       </c>
@@ -8105,12 +7857,12 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="55"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
       <c r="H20" t="s">
         <v>37</v>
       </c>
@@ -8133,11 +7885,11 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
@@ -8316,24 +8068,24 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="58" t="s">
+      <c r="A40" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
+      <c r="A41" s="52"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="59"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
+      <c r="A42" s="52"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -8370,23 +8122,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -8420,44 +8172,44 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="68"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8486,116 +8238,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="H3" s="72" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="H3" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
     </row>
     <row r="8" spans="1:14">
       <c r="B8" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
     </row>
     <row r="9" spans="1:14">
       <c r="B9" t="s">
@@ -8614,13 +8366,13 @@
         <f t="array" ref="F9">LEN(E9)</f>
         <v>13</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
     </row>
     <row r="10" spans="1:14">
       <c r="B10" t="s">
@@ -8736,17 +8488,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="67" t="s">
         <v>70</v>
       </c>
       <c r="B3" t="s">
@@ -8763,7 +8515,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="75"/>
+      <c r="A4" s="68"/>
       <c r="C4" s="5" t="s">
         <v>78</v>
       </c>
@@ -8779,7 +8531,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="75"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="5" t="s">
         <v>73</v>
       </c>
@@ -8799,7 +8551,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="75"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="5" t="s">
         <v>74</v>
       </c>
@@ -8815,7 +8567,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="75"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="5" t="s">
         <v>75</v>
       </c>
@@ -8831,7 +8583,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="75"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="5" t="s">
         <v>72</v>
       </c>
@@ -8843,7 +8595,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="75"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="5" t="s">
         <v>76</v>
       </c>
@@ -8858,86 +8610,86 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="77"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="77"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="77"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="77"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="77"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="77"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8965,14 +8717,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
@@ -9045,72 +8797,72 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="79"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="79"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="79"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="79"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="79"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="79"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9141,87 +8893,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="80"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="47" t="s">
         <v>102</v>
       </c>
       <c r="D7" s="14">
         <f ca="1">TODAY()</f>
-        <v>44727</v>
-      </c>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
+        <v>44726</v>
+      </c>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="C8" s="55"/>
+      <c r="C8" s="48"/>
       <c r="D8" s="15">
         <f ca="1">NOW()</f>
-        <v>44727.747035763889</v>
-      </c>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
+        <v>44726.235103240739</v>
+      </c>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="47" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="14">
@@ -9231,15 +8983,15 @@
         <f>DAY(C10)</f>
         <v>1</v>
       </c>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="B11" s="55"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="14">
         <v>43892</v>
       </c>
@@ -9249,7 +9001,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="B12" s="55"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="14">
         <v>43831</v>
       </c>
@@ -9285,14 +9037,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="3" spans="1:12">
       <c r="B3" s="7" t="s">
@@ -9312,18 +9064,18 @@
       <c r="C4">
         <v>23</v>
       </c>
-      <c r="G4" s="83" t="s">
+      <c r="G4" s="76" t="s">
         <v>114</v>
       </c>
       <c r="I4" s="6">
         <f>SUM(C4:C8)</f>
         <v>94</v>
       </c>
-      <c r="J4" s="85" t="s">
+      <c r="J4" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" t="s">
@@ -9332,14 +9084,14 @@
       <c r="C5">
         <v>23</v>
       </c>
-      <c r="G5" s="84"/>
+      <c r="G5" s="77"/>
       <c r="I5" s="6">
         <f>MIN(C4:C8)</f>
         <v>23</v>
       </c>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" t="s">
@@ -9348,24 +9100,24 @@
       <c r="C6">
         <v>25</v>
       </c>
-      <c r="G6" s="84"/>
+      <c r="G6" s="77"/>
       <c r="I6" s="6">
         <f>MAX(C4:C8)</f>
         <v>25</v>
       </c>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="G7" s="84"/>
+      <c r="G7" s="77"/>
       <c r="I7" s="6">
         <f>AVERAGE(C4:C8)</f>
         <v>23.5</v>
       </c>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" t="s">
@@ -9374,187 +9126,187 @@
       <c r="C8">
         <v>23</v>
       </c>
-      <c r="G8" s="84"/>
+      <c r="G8" s="77"/>
       <c r="I8" s="6">
         <f>COUNT(C4:C8)</f>
         <v>4</v>
       </c>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
     </row>
     <row r="9" spans="1:12">
       <c r="C9">
         <v>35</v>
       </c>
-      <c r="G9" s="84"/>
+      <c r="G9" s="77"/>
       <c r="I9" s="6">
         <f>COUNTA(C4:C8)</f>
         <v>4</v>
       </c>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
     </row>
     <row r="10" spans="1:12">
       <c r="C10">
         <v>34</v>
       </c>
-      <c r="G10" s="84"/>
+      <c r="G10" s="77"/>
       <c r="I10" s="6">
         <f>COUNTBLANK(C4:C8)</f>
         <v>1</v>
       </c>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
     </row>
     <row r="11" spans="1:12">
       <c r="C11">
         <v>27</v>
       </c>
-      <c r="G11" s="84"/>
+      <c r="G11" s="77"/>
       <c r="I11" s="6">
         <f>SMALL(C4:C8,3)</f>
         <v>23</v>
       </c>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="G12" s="84"/>
+      <c r="G12" s="77"/>
       <c r="I12" s="6">
         <f>LARGE(C4:C15,1)</f>
         <v>35</v>
       </c>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="B16" s="87" t="s">
+      <c r="B16" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="5">
